--- a/Tax Rate.xlsx
+++ b/Tax Rate.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadea\PycharmProjects\Accounting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uchenna\Documents\Python\Accounting-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D30B79D-A16D-4AA7-BB6C-9C81132DFAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB8BF3-F5A1-4EEB-B03E-9D2238A03BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Headquarters</t>
   </si>
@@ -144,7 +136,10 @@
     <t>Mount Pleasant</t>
   </si>
   <si>
-    <t>Los Angeles</t>
+    <t>The Factory</t>
+  </si>
+  <si>
+    <t>Boston</t>
   </si>
 </sst>
 </file>
@@ -325,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -356,6 +351,9 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,20 +669,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" customWidth="1"/>
-    <col min="3" max="8" width="8.7109375" customWidth="1"/>
+    <col min="3" max="8" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -698,7 +696,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -712,7 +710,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -726,7 +724,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -740,7 +738,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -754,7 +752,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -768,7 +766,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -782,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -796,7 +794,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -810,7 +808,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -824,7 +822,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -838,7 +836,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -852,7 +850,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -866,7 +864,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -880,7 +878,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
@@ -894,7 +892,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -908,7 +906,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -922,7 +920,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -936,7 +934,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -950,7 +948,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -964,7 +962,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>4</v>
       </c>
@@ -978,7 +976,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -992,7 +990,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1004,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1020,12 +1018,12 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="13">
-        <v>9.2499999999999999E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1034,12 +1032,12 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1048,7 +1046,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1060,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1074,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
@@ -1090,7 +1088,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>33</v>
       </c>
@@ -1104,7 +1102,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
@@ -1118,7 +1116,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1130,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>9</v>
       </c>
@@ -1146,7 +1144,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
@@ -1160,7 +1158,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +1172,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
@@ -1188,7 +1186,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
@@ -1202,7 +1200,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1216,6 +1214,14 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4">
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
